--- a/table/domain.xlsx
+++ b/table/domain.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>green salad</t>
   </si>
@@ -40,13 +40,44 @@
   </si>
   <si>
     <t>GFK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Caesar salad</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>fried rice</t>
+  </si>
+  <si>
+    <t>Oatmeal</t>
+  </si>
+  <si>
+    <t>French onion soup</t>
+  </si>
+  <si>
+    <t>pork cutlet</t>
+  </si>
+  <si>
+    <t>French fries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,16 +103,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -380,16 +413,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
   </cols>
@@ -418,13 +451,13 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="C2" s="2">
+        <v>0.16270000000000001</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.16220000000000001</v>
+      </c>
+      <c r="E2" s="1">
         <v>1</v>
       </c>
     </row>
@@ -436,13 +469,69 @@
         <v>4</v>
       </c>
       <c r="C3" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="E3" s="2">
+        <v>0.47710000000000002</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.47349999999999998</v>
+      </c>
+      <c r="E3" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.94879999999999998</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.9496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.81179999999999997</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.79320000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.32569999999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.8100000000000002E-2</v>
       </c>
     </row>
   </sheetData>
